--- a/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2025.xlsx
+++ b/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2025.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sap_ufac_meta" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,39 +737,238 @@
         </is>
       </c>
     </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>100107</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Bebedouro de pressão, inox, Esmaltec</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>12/08/2019</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 15432</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Diretoria de Finanças e Contabilidade</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>100108</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Notebook Dell Vostro 15, Intel i7, 16GB RAM, 512GB SSD</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 52001</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Coordenação do Curso de Engenharia Civil</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Armário de aço com 2 portas e 4 prateleiras</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>18/06/2018</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 10123</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Diretoria de Sistemas de Informação (DSI)</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>100110</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Microscópio Biológico Binocular, aumento 1600x</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2021</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 29876</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Centro de Ciências Biológicas e da Natureza (CCBN)</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>100111</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Quadro branco magnético 2.00m x 1.20m</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2022</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 49123</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Coordenação do Curso de Pedagogia</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>100112</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Cadeira universitária com prancheta fixa</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>15/02/2020</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>NF-e 18990</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Coordenação do Curso de História</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Irrecuperável</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Alienação/Leilão</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id_desfazimento</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2025.xlsx
+++ b/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2025.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,7 @@
           <t>DESTINAÇÃO</t>
         </is>
       </c>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="3" t="n">
@@ -538,10 +539,15 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
+          <t>Carla Oliveira dos Santos</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
           <t>Irrecuperável</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Alienação/Leilão</t>
         </is>
@@ -584,6 +590,7 @@
           <t>Alienação/Leilão</t>
         </is>
       </c>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="3" t="n">
@@ -622,348 +629,7 @@
           <t>Alienação/Leilão</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>100103</v>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Mesa de escritório 1.20m x 0.60m, cor carvalho</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>20/11/2021</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 33210</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>Diretoria de Comunicação (DECOM)</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>100104</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Projetor Multimídia Epson PowerLite S41+</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10/01/2023</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 51234</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Centro de Educação, Letras e Artes (CELA)</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>100106</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Impressora a Laser HP LaserJet Pro M130fw</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>22/05/2022</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 47890</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Pró-Reitoria de Desenvolvimento e Gestão de Pessoas (PRODGEP)</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>100107</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Bebedouro de pressão, inox, Esmaltec</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>12/08/2019</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 15432</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Diretoria de Finanças e Contabilidade</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>100108</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Notebook Dell Vostro 15, Intel i7, 16GB RAM, 512GB SSD</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>28/02/2023</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 52001</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação do Curso de Engenharia Civil</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>100109</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Armário de aço com 2 portas e 4 prateleiras</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>18/06/2018</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 10123</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Diretoria de Sistemas de Informação (DSI)</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>100110</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Microscópio Biológico Binocular, aumento 1600x</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>10/04/2021</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 29876</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>Centro de Ciências Biológicas e da Natureza (CCBN)</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>100111</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Quadro branco magnético 2.00m x 1.20m</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>01/08/2022</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 49123</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação do Curso de Pedagogia</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>100112</v>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Cadeira universitária com prancheta fixa</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>15/02/2020</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 18990</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação do Curso de História</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
+      <c r="I5" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
